--- a/Hardware/Front panel/Calculations/Thermistor calculations.xlsx
+++ b/Hardware/Front panel/Calculations/Thermistor calculations.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="18080" windowHeight="17540" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="20620" windowHeight="17540" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="35">
   <si>
     <t>Thermistor parameters</t>
   </si>
@@ -129,6 +129,15 @@
   </si>
   <si>
     <t>Corner frequency at min temp</t>
+  </si>
+  <si>
+    <t>Effective input impedance @ min temp</t>
+  </si>
+  <si>
+    <t>Effective input impedance @ max temp</t>
+  </si>
+  <si>
+    <t>Remember -- at minimum, we must always sample above 2x our max corner frequency. And if we don't do any DSP on the microcontroller, we must also send out CAN data at &gt;2x the corner frequency.</t>
   </si>
 </sst>
 </file>
@@ -192,20 +201,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -214,6 +217,9 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -491,16 +497,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D27"/>
+  <dimension ref="A1:D31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="C26" sqref="C26"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="41.33203125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="30.5" customWidth="1"/>
+    <col min="2" max="2" width="33.83203125" customWidth="1"/>
     <col min="3" max="3" width="12.83203125" customWidth="1"/>
   </cols>
   <sheetData>
@@ -508,10 +514,11 @@
       <c r="A1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="4"/>
+      <c r="C1" s="10"/>
+      <c r="D1" s="3"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B2" t="s">
@@ -536,16 +543,17 @@
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B5" s="5" t="s">
+      <c r="B5" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="C5" s="5"/>
+      <c r="C5" s="11"/>
+      <c r="D5" s="3"/>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B6" t="s">
         <v>6</v>
       </c>
-      <c r="C6" s="3">
+      <c r="C6" s="2">
         <f>R_25*EXP(-Beta/(25+273.15))</f>
         <v>0.11928553845185222</v>
       </c>
@@ -557,16 +565,17 @@
       <c r="A8" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B8" s="6" t="s">
+      <c r="B8" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="C8" s="6"/>
+      <c r="C8" s="10"/>
+      <c r="D8" s="3"/>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B9" t="s">
         <v>11</v>
       </c>
-      <c r="C9" s="7">
+      <c r="C9" s="5">
         <v>-40</v>
       </c>
       <c r="D9" t="s">
@@ -588,15 +597,17 @@
       <c r="A12" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B12" s="2" t="s">
+      <c r="B12" s="4" t="s">
         <v>14</v>
       </c>
+      <c r="C12" s="4"/>
+      <c r="D12" s="4"/>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B13" t="s">
         <v>15</v>
       </c>
-      <c r="C13" s="8">
+      <c r="C13" s="6">
         <f>R_inf*EXP(Beta/(T_max+273.15))</f>
         <v>579.99974471507198</v>
       </c>
@@ -608,7 +619,7 @@
       <c r="B14" t="s">
         <v>16</v>
       </c>
-      <c r="C14" s="8">
+      <c r="C14" s="6">
         <f>R_inf*EXP(Beta/(T_min+273.15))</f>
         <v>235830.75593322571</v>
       </c>
@@ -620,16 +631,18 @@
       <c r="A16" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B16" s="2" t="s">
+      <c r="B16" s="4" t="s">
         <v>18</v>
       </c>
+      <c r="C16" s="4"/>
+      <c r="D16" s="4"/>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B17" t="s">
         <v>19</v>
       </c>
       <c r="C17">
-        <v>8200</v>
+        <v>10000</v>
       </c>
       <c r="D17" t="s">
         <v>4</v>
@@ -639,23 +652,25 @@
       <c r="A19" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="B19" s="2" t="s">
+      <c r="B19" s="4" t="s">
         <v>21</v>
       </c>
+      <c r="C19" s="4"/>
+      <c r="D19" s="4"/>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B20" t="s">
         <v>22</v>
       </c>
       <c r="C20">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D20" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B21" s="9" t="s">
+      <c r="B21" s="7" t="s">
         <v>24</v>
       </c>
       <c r="C21">
@@ -670,9 +685,9 @@
       <c r="B22" t="s">
         <v>25</v>
       </c>
-      <c r="C22" s="7">
+      <c r="C22" s="5">
         <f>1/((1/(R_inf*EXP(Beta/(T_midpoint+273.15))))+(1/Rs))</f>
-        <v>3231.7147479317737</v>
+        <v>3478.4782744149006</v>
       </c>
       <c r="D22" t="s">
         <v>4</v>
@@ -682,9 +697,9 @@
       <c r="B23" t="s">
         <v>26</v>
       </c>
-      <c r="C23" s="10">
+      <c r="C23" s="8">
         <f>1/(2*PI()*C22*C20)*1000000</f>
-        <v>16.415943805451992</v>
+        <v>45.75418632409486</v>
       </c>
       <c r="D23" t="s">
         <v>27</v>
@@ -694,25 +709,71 @@
       <c r="A25" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="B25" s="2" t="s">
+      <c r="B25" s="4" t="s">
         <v>29</v>
       </c>
+      <c r="C25" s="4"/>
+      <c r="D25" s="4"/>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B26" t="s">
+      <c r="B26" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="C26" s="5">
+        <f>1/((1/(R_inf*EXP(Beta/(T_max+273.15))))+(1/Rs))</f>
+        <v>548.20393072768627</v>
+      </c>
+      <c r="D26" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B27" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="C27" s="5">
+        <f>1/((1/(R_inf*EXP(Beta/(T_min+273.15))))+(1/Rs))</f>
+        <v>9593.2160741222997</v>
+      </c>
+      <c r="D27" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B28" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B27" t="s">
+      <c r="C28" s="8">
+        <f>1/(2*PI()*C26*C23/1000000)</f>
+        <v>6.3452268023645253</v>
+      </c>
+      <c r="D28" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B29" t="s">
         <v>31</v>
       </c>
+      <c r="C29" s="8">
+        <f>1/(2*PI()*C27*C23/1000000)</f>
+        <v>0.36259771984059608</v>
+      </c>
+      <c r="D29" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" ht="80" x14ac:dyDescent="0.2">
+      <c r="A31" s="1" t="s">
+        <v>34</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="3">
-    <mergeCell ref="B1:C1"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="B8:C8"/>
+  <mergeCells count="4">
+    <mergeCell ref="B25:D25"/>
+    <mergeCell ref="B12:D12"/>
+    <mergeCell ref="B16:D16"/>
+    <mergeCell ref="B19:D19"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
